--- a/Bitrix24 - 2/SMS providers.xlsx
+++ b/Bitrix24 - 2/SMS providers.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Service name</t>
   </si>
@@ -74,6 +74,99 @@
   </si>
   <si>
     <t>TCG SMS</t>
+  </si>
+  <si>
+    <t>CSC Telecom</t>
+  </si>
+  <si>
+    <t>Message Service
+Data storage</t>
+  </si>
+  <si>
+    <t>no information</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Cozy Vision Technologies Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>CRM
+Message Service</t>
+  </si>
+  <si>
+    <t>https://www.smsalert.co.in/theme/smsalert/docs/privacy.pdf</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=csctelecomlv.smsgate#install</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=cozyvision.smsalert#install</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/18CMVfnCT6iK67Rd6UyttPNkwD-ythGHZ?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://www.altiria.com/aviso-legal/</t>
+  </si>
+  <si>
+    <t>Altiria TIC, S.L.</t>
+  </si>
+  <si>
+    <t>CRM
+Open lines
+Employees
+Message Service
+Data storage</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=informunity.altiriasms#install</t>
+  </si>
+  <si>
+    <t>Privacy Policy is only in Spanish</t>
+  </si>
+  <si>
+    <t>YouNet Social Intranet</t>
+  </si>
+  <si>
+    <t>CRM
+Chat and notifications
+Employees
+Activity stream
+Business Processes
+Open lines
+Message Service</t>
+  </si>
+  <si>
+    <t>SMS service</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>https://younetsi.com/support</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=younetsi.smsprovidervht#install</t>
+  </si>
+  <si>
+    <t>Dreamsite</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=dreamsite.tcgsms#install</t>
+  </si>
+  <si>
+    <t>Can`t get api key for next step in sign up</t>
   </si>
 </sst>
 </file>
@@ -182,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -211,6 +304,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -531,12 +627,12 @@
   <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" style="4"/>
+    <col min="1" max="1" width="16.296875" style="4" customWidth="1"/>
     <col min="2" max="5" width="20.796875" style="4" customWidth="1"/>
     <col min="6" max="6" width="47.3984375" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.296875" style="4" customWidth="1"/>
@@ -581,78 +677,162 @@
     </row>
     <row r="3" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="G3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6"/>
+      <c r="G4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
+      <c r="G5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="G6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="G7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -709,7 +889,11 @@
       <c r="D32" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Bitrix24 - 2/SMS providers.xlsx
+++ b/Bitrix24 - 2/SMS providers.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Service name</t>
   </si>
@@ -167,6 +167,21 @@
   </si>
   <si>
     <t>Can`t get api key for next step in sign up</t>
+  </si>
+  <si>
+    <t>Authorization data; API key; Sender ID; Full name; Email; Phone number; Company name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domain ID; Sender name; authorization data, full name, company name, email, mobile phone;  IP address, browser used, screen definition, language, operating system and referring page (including any criteria that have been entered in the search tool) </t>
+  </si>
+  <si>
+    <t>Authorization data; API key; Sender ID</t>
+  </si>
+  <si>
+    <t>API and Secret key for configuration; BrandName; email; client name; phone number; Bitrix domain; authorization data for third party services; User`s content on website; Payment information</t>
+  </si>
+  <si>
+    <t>SMS alert authorization data; Sender ID; First name; Email; phone number; IP addresses or domain names of the computers utilized by the users who connect to the site, the URI addresses (Uniform Resource Identifier), the time of the request, the method utilized to submit the request to the server, the size of the file received in response, the numerical code indicating the status of the server's answer (successful outcome, error, etc.), the country of origin, the features of the browser and the operating system utilized by the visitor, the various time details per visit (e.g., the time spent on each page) and the details about the path followed within the site with special reference to the sequence of pages visited, and other parameters about the operating system and the user's IT environment; location</t>
   </si>
 </sst>
 </file>
@@ -220,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +245,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -287,7 +320,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -300,13 +332,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -627,7 +667,7 @@
   <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,6 +684,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,161 +717,171 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:11" ht="271.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -892,8 +943,9 @@
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1"/>
     <hyperlink ref="I5" r:id="rId2"/>
+    <hyperlink ref="I6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>